--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1581.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1581.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9918974240181967</v>
+        <v>0.5514945387840271</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.693696916103363</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.003373146057129</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.112203121185303</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>3.980604648590088</v>
       </c>
     </row>
   </sheetData>
